--- a/excel/Book1.xlsx
+++ b/excel/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Fullname</t>
   </si>
@@ -232,7 +232,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +598,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -685,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>54654545</v>
@@ -761,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>98546842</v>
@@ -983,15 +984,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A9CFBB7B-93A6-47D0-8EEA-2B1F5FDABCF3}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{F4DF5EE7-EF93-46DC-AC49-C34D4B71E4A9}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0660F2CD-A492-40A5-A0CD-036D55A5C4D1}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{4A351106-64AE-466D-AC4A-33B9CCEB3297}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{DBFB958C-88F1-4471-8A16-7B7D9D73A11A}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{AD45E2F1-7DCA-4CC8-B4E0-CB095E3D078E}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{DC4D5CA1-E011-4B31-8356-6EDE2AEC9EA3}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{CB1E851E-78A1-4AB7-AA4A-348C44DD6531}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{7A72F1CF-C5E0-465C-95D1-7E2A7603DA53}"/>
+    <hyperlink ref="B2" r:id="rId46" xr:uid="{A9CFBB7B-93A6-47D0-8EEA-2B1F5FDABCF3}"/>
+    <hyperlink ref="B3" r:id="rId47" xr:uid="{F4DF5EE7-EF93-46DC-AC49-C34D4B71E4A9}"/>
+    <hyperlink ref="B4" r:id="rId48" xr:uid="{0660F2CD-A492-40A5-A0CD-036D55A5C4D1}"/>
+    <hyperlink ref="B5" r:id="rId49" xr:uid="{4A351106-64AE-466D-AC4A-33B9CCEB3297}"/>
+    <hyperlink ref="B6" r:id="rId50" xr:uid="{DBFB958C-88F1-4471-8A16-7B7D9D73A11A}"/>
+    <hyperlink ref="B7" r:id="rId51" xr:uid="{AD45E2F1-7DCA-4CC8-B4E0-CB095E3D078E}"/>
+    <hyperlink ref="B8" r:id="rId52" xr:uid="{DC4D5CA1-E011-4B31-8356-6EDE2AEC9EA3}"/>
+    <hyperlink ref="B9" r:id="rId53" xr:uid="{CB1E851E-78A1-4AB7-AA4A-348C44DD6531}"/>
+    <hyperlink ref="B10" r:id="rId54" xr:uid="{7A72F1CF-C5E0-465C-95D1-7E2A7603DA53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
